--- a/Python/Python36/src/excel/1.xlsx
+++ b/Python/Python36/src/excel/1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -82,9 +83,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -94,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,9 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -409,4 +418,43 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>